--- a/team_specific_matrix/Presbyterian_A.xlsx
+++ b/team_specific_matrix/Presbyterian_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.25177304964539</v>
+        <v>0.2343324250681199</v>
       </c>
       <c r="C2">
-        <v>0.4468085106382979</v>
+        <v>0.4713896457765668</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01773049645390071</v>
+        <v>0.01634877384196185</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.198581560283688</v>
+        <v>0.1798365122615804</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0851063829787234</v>
+        <v>0.09809264305177112</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02255639097744361</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="C3">
-        <v>0.02255639097744361</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03007518796992481</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6541353383458647</v>
+        <v>0.6830601092896175</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2706766917293233</v>
+        <v>0.2513661202185792</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08163265306122448</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3469387755102041</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08670520231213873</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0115606936416185</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09248554913294797</v>
+        <v>0.09691629955947137</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2716763005780347</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01734104046242774</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1734104046242775</v>
+        <v>0.1718061674008811</v>
       </c>
       <c r="R6">
-        <v>0.04046242774566474</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="S6">
-        <v>0.3063583815028902</v>
+        <v>0.3171806167400881</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1243523316062176</v>
+        <v>0.116</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02072538860103627</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07253886010362694</v>
+        <v>0.064</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1295336787564767</v>
+        <v>0.128</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0155440414507772</v>
+        <v>0.024</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761658031088083</v>
+        <v>0.172</v>
       </c>
       <c r="R7">
-        <v>0.09844559585492228</v>
+        <v>0.112</v>
       </c>
       <c r="S7">
-        <v>0.3626943005181347</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09333333333333334</v>
+        <v>0.09936575052854123</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01866666666666667</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E8">
-        <v>0.002666666666666667</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="F8">
-        <v>0.064</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1146666666666667</v>
+        <v>0.1099365750528541</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02666666666666667</v>
+        <v>0.02748414376321353</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.16</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="R8">
-        <v>0.1013333333333333</v>
+        <v>0.09513742071881606</v>
       </c>
       <c r="S8">
-        <v>0.4186666666666667</v>
+        <v>0.4038054968287527</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1094890510948905</v>
+        <v>0.1179775280898876</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0291970802919708</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06569343065693431</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1021897810218978</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0145985401459854</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2481751824817518</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="R9">
-        <v>0.0583941605839416</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="S9">
-        <v>0.3722627737226277</v>
+        <v>0.3764044943820224</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1233019853709509</v>
+        <v>0.1207430340557276</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03866248693834901</v>
+        <v>0.03869969040247678</v>
       </c>
       <c r="E10">
-        <v>0.001044932079414838</v>
+        <v>0.0007739938080495357</v>
       </c>
       <c r="F10">
-        <v>0.05642633228840126</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1013584117032393</v>
+        <v>0.1037151702786378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01671891327063741</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2413793103448276</v>
+        <v>0.2438080495356037</v>
       </c>
       <c r="R10">
-        <v>0.07419017763845349</v>
+        <v>0.0696594427244582</v>
       </c>
       <c r="S10">
-        <v>0.3469174503657262</v>
+        <v>0.3459752321981424</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1114754098360656</v>
+        <v>0.1094147582697201</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1114754098360656</v>
+        <v>0.1094147582697201</v>
       </c>
       <c r="K11">
-        <v>0.1770491803278688</v>
+        <v>0.178117048346056</v>
       </c>
       <c r="L11">
-        <v>0.5934426229508196</v>
+        <v>0.5903307888040712</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006557377049180328</v>
+        <v>0.01272264631043257</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7395833333333334</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1822916666666667</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="K12">
-        <v>0.01041666666666667</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="L12">
-        <v>0.04166666666666666</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02604166666666667</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8620689655172413</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1379310344827586</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00625</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15625</v>
+        <v>0.1461187214611872</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="J15">
-        <v>0.35625</v>
+        <v>0.365296803652968</v>
       </c>
       <c r="K15">
-        <v>0.05625</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01875</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0375</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.30625</v>
+        <v>0.3150684931506849</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01796407185628742</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2335329341317365</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="I16">
-        <v>0.1017964071856287</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="J16">
-        <v>0.3293413173652694</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K16">
-        <v>0.1197604790419162</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03592814371257485</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O16">
-        <v>0.02994011976047904</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1317365269461078</v>
+        <v>0.1441441441441441</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0310880829015544</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1917098445595855</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I17">
-        <v>0.05699481865284974</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="J17">
-        <v>0.3937823834196891</v>
+        <v>0.4089147286821705</v>
       </c>
       <c r="K17">
-        <v>0.1269430051813472</v>
+        <v>0.125968992248062</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02072538860103627</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08549222797927461</v>
+        <v>0.07364341085271318</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09326424870466321</v>
+        <v>0.1007751937984496</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02112676056338028</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.176056338028169</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="I18">
-        <v>0.04929577464788732</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="J18">
-        <v>0.4577464788732394</v>
+        <v>0.4699453551912569</v>
       </c>
       <c r="K18">
-        <v>0.176056338028169</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007042253521126761</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="N18">
-        <v>0.007042253521126761</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O18">
-        <v>0.0352112676056338</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07042253521126761</v>
+        <v>0.07103825136612021</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01476793248945148</v>
+        <v>0.01349206349206349</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2236286919831224</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="I19">
-        <v>0.09071729957805907</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J19">
-        <v>0.3438818565400844</v>
+        <v>0.3547619047619048</v>
       </c>
       <c r="K19">
-        <v>0.1476793248945148</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01582278481012658</v>
+        <v>0.01825396825396826</v>
       </c>
       <c r="N19">
-        <v>0.001054852320675105</v>
+        <v>0.001587301587301587</v>
       </c>
       <c r="O19">
-        <v>0.06012658227848101</v>
+        <v>0.0626984126984127</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1023206751054852</v>
+        <v>0.1007936507936508</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Presbyterian_A.xlsx
+++ b/team_specific_matrix/Presbyterian_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2343324250681199</v>
+        <v>0.2305699481865285</v>
       </c>
       <c r="C2">
-        <v>0.4713896457765668</v>
+        <v>0.4792746113989637</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01634877384196185</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1798365122615804</v>
+        <v>0.1787564766839378</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09809264305177112</v>
+        <v>0.09585492227979274</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02185792349726776</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C3">
-        <v>0.01639344262295082</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0273224043715847</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6830601092896175</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2513661202185792</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07352941176470588</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01470588235294118</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P4">
-        <v>0.5588235294117647</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3529411764705883</v>
+        <v>0.3037974683544304</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09691629955947137</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00881057268722467</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09691629955947137</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2466960352422908</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01762114537444934</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1718061674008811</v>
+        <v>0.1769547325102881</v>
       </c>
       <c r="R6">
-        <v>0.04405286343612335</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="S6">
-        <v>0.3171806167400881</v>
+        <v>0.308641975308642</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.116</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.064</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.128</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.024</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.172</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="R7">
-        <v>0.112</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="S7">
-        <v>0.364</v>
+        <v>0.3682170542635659</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09936575052854123</v>
+        <v>0.1045364891518738</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02325581395348837</v>
+        <v>0.02761341222879684</v>
       </c>
       <c r="E8">
-        <v>0.002114164904862579</v>
+        <v>0.001972386587771203</v>
       </c>
       <c r="F8">
-        <v>0.06553911205073996</v>
+        <v>0.0670611439842209</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1099365750528541</v>
+        <v>0.1045364891518738</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02748414376321353</v>
+        <v>0.02761341222879684</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1733615221987315</v>
+        <v>0.1755424063116371</v>
       </c>
       <c r="R8">
-        <v>0.09513742071881606</v>
+        <v>0.09072978303747535</v>
       </c>
       <c r="S8">
-        <v>0.4038054968287527</v>
+        <v>0.4003944773175542</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1179775280898876</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02808988764044944</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06179775280898876</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.101123595505618</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01685393258426966</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2247191011235955</v>
+        <v>0.225130890052356</v>
       </c>
       <c r="R9">
-        <v>0.07303370786516854</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="S9">
-        <v>0.3764044943820224</v>
+        <v>0.3769633507853403</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1207430340557276</v>
+        <v>0.1180705543556515</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03869969040247678</v>
+        <v>0.04031677465802735</v>
       </c>
       <c r="E10">
-        <v>0.0007739938080495357</v>
+        <v>0.0007199424046076314</v>
       </c>
       <c r="F10">
-        <v>0.06191950464396285</v>
+        <v>0.06047516198704104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1037151702786378</v>
+        <v>0.1065514758819294</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01470588235294118</v>
+        <v>0.01439884809215263</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2438080495356037</v>
+        <v>0.2397408207343412</v>
       </c>
       <c r="R10">
-        <v>0.0696594427244582</v>
+        <v>0.06911447084233262</v>
       </c>
       <c r="S10">
-        <v>0.3459752321981424</v>
+        <v>0.3506119510439165</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1094147582697201</v>
+        <v>0.1089588377723971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1094147582697201</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K11">
-        <v>0.178117048346056</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L11">
-        <v>0.5903307888040712</v>
+        <v>0.5738498789346247</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01272264631043257</v>
+        <v>0.01210653753026634</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.180327868852459</v>
+        <v>0.184</v>
       </c>
       <c r="K12">
-        <v>0.00819672131147541</v>
+        <v>0.012</v>
       </c>
       <c r="L12">
-        <v>0.03688524590163934</v>
+        <v>0.036</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0045662100456621</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1461187214611872</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="I15">
-        <v>0.0502283105022831</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="J15">
-        <v>0.365296803652968</v>
+        <v>0.3644067796610169</v>
       </c>
       <c r="K15">
-        <v>0.0502283105022831</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0182648401826484</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0502283105022831</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3150684931506849</v>
+        <v>0.3220338983050847</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01351351351351351</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2162162162162162</v>
+        <v>0.2148760330578512</v>
       </c>
       <c r="I16">
-        <v>0.0945945945945946</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3513513513513514</v>
+        <v>0.3677685950413223</v>
       </c>
       <c r="K16">
-        <v>0.1036036036036036</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02702702702702703</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="N16">
-        <v>0.004504504504504504</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="O16">
-        <v>0.04504504504504504</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1441441441441441</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02713178294573643</v>
+        <v>0.02550091074681239</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.186046511627907</v>
+        <v>0.1876138433515483</v>
       </c>
       <c r="I17">
-        <v>0.05813953488372093</v>
+        <v>0.05828779599271403</v>
       </c>
       <c r="J17">
-        <v>0.4089147286821705</v>
+        <v>0.4116575591985428</v>
       </c>
       <c r="K17">
-        <v>0.125968992248062</v>
+        <v>0.1238615664845173</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01937984496124031</v>
+        <v>0.01821493624772313</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07364341085271318</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1007751937984496</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02185792349726776</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1584699453551913</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="I18">
-        <v>0.0546448087431694</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="J18">
-        <v>0.4699453551912569</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="K18">
-        <v>0.1693989071038251</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01092896174863388</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N18">
-        <v>0.00546448087431694</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="O18">
-        <v>0.03825136612021858</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07103825136612021</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01349206349206349</v>
+        <v>0.01404286770140429</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2119047619047619</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I19">
-        <v>0.08888888888888889</v>
+        <v>0.08795269770879527</v>
       </c>
       <c r="J19">
-        <v>0.3547619047619048</v>
+        <v>0.3562453806356246</v>
       </c>
       <c r="K19">
-        <v>0.1476190476190476</v>
+        <v>0.1433850702143385</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01825396825396826</v>
+        <v>0.02069475240206948</v>
       </c>
       <c r="N19">
-        <v>0.001587301587301587</v>
+        <v>0.00147819660014782</v>
       </c>
       <c r="O19">
-        <v>0.0626984126984127</v>
+        <v>0.06134515890613452</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1007936507936508</v>
+        <v>0.1027346637102735</v>
       </c>
     </row>
   </sheetData>
